--- a/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1AE4C0-2E3B-4CBA-B6CA-817E37586570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D525E220-2697-40CD-9A91-75AF66C68998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E899E351-CBFC-4F18-8E5F-B12B339C01BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{332B66BF-9E23-4285-A910-1098D96A49B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,48%</t>
   </si>
   <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>21,52%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,16 +137,16 @@
     <t>82,7%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>79,36%</t>
+    <t>79,11%</t>
   </si>
   <si>
     <t>88,08%</t>
@@ -155,19 +155,19 @@
     <t>83,45%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>15,58%</t>
@@ -176,16 +176,16 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>20,64%</t>
+    <t>20,89%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,193 +194,187 @@
     <t>84,86%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,96%</t>
+    <t>83,86%</t>
   </si>
   <si>
     <t>86,64%</t>
@@ -389,19 +383,19 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -410,7 +404,7 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>16,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EDDFF9-048B-4656-AE1A-405F505AF7DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A7556-FBFA-4D81-9162-996DD271814C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1569,13 +1563,13 @@
         <v>436487</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>525</v>
@@ -1584,13 +1578,13 @@
         <v>395597</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>945</v>
@@ -1599,13 +1593,13 @@
         <v>832083</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>58469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -1635,13 +1629,13 @@
         <v>67507</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -1650,13 +1644,13 @@
         <v>125977</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>1568732</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1755</v>
@@ -1739,13 +1733,13 @@
         <v>1278491</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3197</v>
@@ -1754,13 +1748,13 @@
         <v>2847224</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>266084</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>280</v>
@@ -1790,13 +1784,13 @@
         <v>224014</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -1805,13 +1799,13 @@
         <v>490098</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D525E220-2697-40CD-9A91-75AF66C68998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F311B608-E33A-468B-AED6-E7538F6047AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{332B66BF-9E23-4285-A910-1098D96A49B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9373724-15AB-48E2-9FB6-A7D53F4C371C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,7%</t>
@@ -188,7 +188,7 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,86%</t>
@@ -245,7 +245,7 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,21%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A7556-FBFA-4D81-9162-996DD271814C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23AB5E1-DD92-4097-9B55-9E32B13E09AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F311B608-E33A-468B-AED6-E7538F6047AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BBF5FE-C1FE-4494-8684-BF87399F7466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9373724-15AB-48E2-9FB6-A7D53F4C371C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CBC80A5-48C2-4771-95CC-7CA3476DF6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,48%</t>
   </si>
   <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>21,52%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,16 +137,16 @@
     <t>82,7%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>79,11%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>88,08%</t>
@@ -155,19 +155,19 @@
     <t>83,45%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>15,58%</t>
@@ -176,16 +176,16 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,187 +194,193 @@
     <t>84,86%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>82,18%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,86%</t>
+    <t>83,96%</t>
   </si>
   <si>
     <t>86,64%</t>
@@ -383,19 +389,19 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -404,7 +410,7 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>16,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23AB5E1-DD92-4097-9B55-9E32B13E09AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242EF986-400E-4E58-BCE4-5E181752783F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,13 +1569,13 @@
         <v>436487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>525</v>
@@ -1578,13 +1584,13 @@
         <v>395597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>945</v>
@@ -1593,13 +1599,13 @@
         <v>832083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>58469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -1629,13 +1635,13 @@
         <v>67507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -1644,13 +1650,13 @@
         <v>125977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>1568732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1755</v>
@@ -1733,13 +1739,13 @@
         <v>1278491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3197</v>
@@ -1748,13 +1754,13 @@
         <v>2847224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>266084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>280</v>
@@ -1784,13 +1790,13 @@
         <v>224014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -1799,13 +1805,13 @@
         <v>490098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BBF5FE-C1FE-4494-8684-BF87399F7466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F2A0741-8291-4500-A102-02F844AEF452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CBC80A5-48C2-4771-95CC-7CA3476DF6A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A2427F-BDC6-42BD-8B43-F42D1674BBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242EF986-400E-4E58-BCE4-5E181752783F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB18984-7459-444D-AC89-CE9DEADCFF8D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7">
-        <v>40838</v>
+        <v>274135</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="I4" s="7">
-        <v>36900</v>
+        <v>216449</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>101</v>
+        <v>636</v>
       </c>
       <c r="N4" s="7">
-        <v>77739</v>
+        <v>490584</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>11201</v>
+        <v>60174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7">
-        <v>6850</v>
+        <v>39505</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="N5" s="7">
-        <v>18051</v>
+        <v>99679</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="D6" s="7">
-        <v>52039</v>
+        <v>334309</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="I6" s="7">
-        <v>43750</v>
+        <v>255954</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>748</v>
       </c>
       <c r="N6" s="7">
-        <v>95790</v>
+        <v>590263</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>453</v>
       </c>
       <c r="D7" s="7">
-        <v>242069</v>
+        <v>710538</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>294</v>
+        <v>511</v>
       </c>
       <c r="I7" s="7">
-        <v>193089</v>
+        <v>341062</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>535</v>
+        <v>964</v>
       </c>
       <c r="N7" s="7">
-        <v>435158</v>
+        <v>1051600</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>50648</v>
+        <v>94820</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I8" s="7">
-        <v>35648</v>
+        <v>59829</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="N8" s="7">
-        <v>86296</v>
+        <v>154649</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="D9" s="7">
-        <v>292717</v>
+        <v>805358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>340</v>
+        <v>597</v>
       </c>
       <c r="I9" s="7">
-        <v>228737</v>
+        <v>400891</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>628</v>
+        <v>1126</v>
       </c>
       <c r="N9" s="7">
-        <v>521454</v>
+        <v>1206249</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>453</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>536564</v>
+        <v>303215</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="I10" s="7">
-        <v>376910</v>
+        <v>279597</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>964</v>
+        <v>652</v>
       </c>
       <c r="N10" s="7">
-        <v>913474</v>
+        <v>582812</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>95738</v>
+        <v>48331</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>65612</v>
+        <v>43931</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>161350</v>
+        <v>92262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>529</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>632302</v>
+        <v>351546</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>597</v>
+        <v>424</v>
       </c>
       <c r="I12" s="7">
-        <v>442522</v>
+        <v>323528</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1126</v>
+        <v>751</v>
       </c>
       <c r="N12" s="7">
-        <v>1074824</v>
+        <v>675074</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="D13" s="7">
-        <v>312774</v>
+        <v>416396</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="I13" s="7">
-        <v>275994</v>
+        <v>420562</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>652</v>
+        <v>945</v>
       </c>
       <c r="N13" s="7">
-        <v>588769</v>
+        <v>836957</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>50028</v>
+        <v>55807</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I14" s="7">
-        <v>48397</v>
+        <v>61026</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>98425</v>
+        <v>116834</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>362802</v>
+        <v>472203</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>424</v>
+        <v>605</v>
       </c>
       <c r="I15" s="7">
-        <v>324391</v>
+        <v>481588</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>687194</v>
+        <v>953791</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>420</v>
+        <v>1442</v>
       </c>
       <c r="D16" s="7">
-        <v>436487</v>
+        <v>1704284</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1755</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1257670</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>525</v>
-      </c>
-      <c r="I16" s="7">
-        <v>395597</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3197</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2961954</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>945</v>
-      </c>
-      <c r="N16" s="7">
-        <v>832083</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
-        <v>58469</v>
+        <v>259132</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>280</v>
+      </c>
+      <c r="I17" s="7">
+        <v>204291</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>80</v>
-      </c>
-      <c r="I17" s="7">
-        <v>67507</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>512</v>
+      </c>
+      <c r="N17" s="7">
+        <v>463423</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>139</v>
-      </c>
-      <c r="N17" s="7">
-        <v>125977</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>479</v>
+        <v>1674</v>
       </c>
       <c r="D18" s="7">
-        <v>494956</v>
+        <v>1963416</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>605</v>
+        <v>2035</v>
       </c>
       <c r="I18" s="7">
-        <v>463104</v>
+        <v>1461961</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1084</v>
+        <v>3709</v>
       </c>
       <c r="N18" s="7">
-        <v>958060</v>
+        <v>3425377</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1442</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1568732</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1755</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1278491</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3197</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2847224</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>232</v>
-      </c>
-      <c r="D20" s="7">
-        <v>266084</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>280</v>
-      </c>
-      <c r="I20" s="7">
-        <v>224014</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>512</v>
-      </c>
-      <c r="N20" s="7">
-        <v>490098</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1674</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1834816</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2035</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1502505</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3709</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3337322</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
